--- a/src/main/resources/static/excel/整烫包装.xlsx
+++ b/src/main/resources/static/excel/整烫包装.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="13405"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>编码</t>
   </si>
@@ -44,36 +44,6 @@
   </si>
   <si>
     <t>修改</t>
-  </si>
-  <si>
-    <t>SG-01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>腰带手工工艺</t>
-  </si>
-  <si>
-    <t>腰带留口处需手工暗撬封口，针距3cm/9针</t>
-  </si>
-  <si>
-    <t>M后技术负责人</t>
-  </si>
-  <si>
-    <t>BZD-</t>
-  </si>
-  <si>
-    <t>车缝</t>
-  </si>
-  <si>
-    <t>自封粘胶袋（加大）</t>
-  </si>
-  <si>
-    <t>50*65（叠装）</t>
-  </si>
-  <si>
-    <t>邓志云</t>
   </si>
 </sst>
 </file>
@@ -561,7 +531,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,13 +1019,13 @@
   <sheetPr/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,68 +1058,28 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43642.4638888889</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4">
-        <v>44725.9645833333</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43264.7159722222</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4">
-        <v>44725.9631944444</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
